--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="13620"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19155" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
-  <si>
-    <t>First Code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Second Code</t>
   </si>
@@ -30,42 +27,21 @@
     <t>ZipCode</t>
   </si>
   <si>
-    <t xml:space="preserve">MLP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median List Price   </t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Cities</t>
-  </si>
-  <si>
     <t>MLPSF</t>
   </si>
   <si>
-    <t>Median List Price Per Square Feet</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Neighborhoods</t>
-  </si>
-  <si>
     <t>MVSF</t>
   </si>
   <si>
-    <t>Median Value Per Square Feet</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
-    <t>Counties</t>
-  </si>
-  <si>
     <t>MPC</t>
   </si>
   <si>
@@ -75,60 +51,33 @@
     <t>LPC</t>
   </si>
   <si>
-    <t>Listings with Price Cuts</t>
-  </si>
-  <si>
     <t>TT</t>
   </si>
   <si>
-    <t>Top Tier Homes</t>
-  </si>
-  <si>
     <t>MT</t>
   </si>
   <si>
-    <t>Middle Tier Homes</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
-    <t>Bottom Tier Homes</t>
-  </si>
-  <si>
     <t>SPY</t>
   </si>
   <si>
-    <t>Sold in Past Year (%)</t>
-  </si>
-  <si>
     <t>Condominiums</t>
   </si>
   <si>
     <t>RMP</t>
   </si>
   <si>
-    <t>Rental Median Price</t>
-  </si>
-  <si>
     <t>RAH</t>
   </si>
   <si>
-    <t>Rentals All Homes</t>
-  </si>
-  <si>
     <t>HR</t>
   </si>
   <si>
-    <t>Homes for Rent</t>
-  </si>
-  <si>
     <t>RZSF</t>
   </si>
   <si>
-    <t>Rentals ZRI Per Sq Ft</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -138,33 +87,18 @@
     <t>1B</t>
   </si>
   <si>
-    <t>1 Bedroom Homes</t>
-  </si>
-  <si>
     <t>2B</t>
   </si>
   <si>
-    <t>2 Bedroom Homes</t>
-  </si>
-  <si>
     <t>3B</t>
   </si>
   <si>
-    <t>3 Bedroom Homes</t>
-  </si>
-  <si>
     <t>4B</t>
   </si>
   <si>
-    <t>4 Bedroom Homes</t>
-  </si>
-  <si>
     <t>SLPR</t>
   </si>
   <si>
-    <t>Sale To List Price</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -174,9 +108,6 @@
     <t>SFG</t>
   </si>
   <si>
-    <t>Sold For Gain</t>
-  </si>
-  <si>
     <t>DV</t>
   </si>
   <si>
@@ -192,27 +123,146 @@
     <t>HF</t>
   </si>
   <si>
-    <t>Homes Foreclosed</t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
-    <t>Foreclosure Resales</t>
-  </si>
-  <si>
     <t>PRR</t>
   </si>
   <si>
-    <t>Price to Rent Ratio</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Greater Metro Area</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Neighborhood</t>
+  </si>
+  <si>
+    <t>Area Code</t>
+  </si>
+  <si>
+    <t>Area Category</t>
+  </si>
+  <si>
+    <t>Price per Square Foot</t>
+  </si>
+  <si>
+    <t>1 Bedroom</t>
+  </si>
+  <si>
+    <t>2 Bedroom</t>
+  </si>
+  <si>
+    <t>3 Bedroom</t>
+  </si>
+  <si>
+    <t>4 Bedroom</t>
+  </si>
+  <si>
+    <t>5 or More</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>Bottom Tier</t>
+  </si>
+  <si>
+    <t>Middle Tier</t>
+  </si>
+  <si>
+    <t>Top Tier</t>
+  </si>
+  <si>
+    <t>Median Rent, Homes Listed for Rent</t>
+  </si>
+  <si>
+    <t>Estimated Rent, All Homes in Region</t>
+  </si>
+  <si>
+    <t>Estimated Rent per Square Foot</t>
+  </si>
+  <si>
+    <t>Price-to-Rent Ratio</t>
+  </si>
+  <si>
+    <t>Median List Price</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>Median Sale Price</t>
+  </si>
+  <si>
+    <t>MSP</t>
+  </si>
+  <si>
+    <t>Median List Price per Square Foot</t>
+  </si>
+  <si>
+    <t>Median Sale Price per Square Foot</t>
+  </si>
+  <si>
+    <t>MSPSF</t>
+  </si>
+  <si>
+    <t>Listings with Price Cut in Last 30 Days</t>
+  </si>
+  <si>
+    <t>Ratio of Sale Price to List Price</t>
+  </si>
+  <si>
+    <t>Sold for Loss</t>
+  </si>
+  <si>
+    <t>SFL</t>
+  </si>
+  <si>
+    <t>Sold for Gain</t>
+  </si>
+  <si>
+    <t>Turnover in Housing Market, Past 1 Year</t>
+  </si>
+  <si>
+    <t>Number of Homes for Rent</t>
+  </si>
+  <si>
+    <t>Monthly Foreclosures per 10,000 Homes</t>
+  </si>
+  <si>
+    <t>Percentage of Sales that were Foreclosures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -240,8 +290,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,264 +587,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="24" spans="5:6">
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" t="s">
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6">
+      <c r="E31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" t="s">
+      <c r="F31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6">
+      <c r="E32" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
+      <c r="F32" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
